--- a/auto_test01/currency.xlsx
+++ b/auto_test01/currency.xlsx
@@ -472,22 +472,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29.04</t>
+          <t>29.03</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.71</t>
+          <t>29.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>29.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>29.49</t>
+          <t>29.48</t>
         </is>
       </c>
     </row>
@@ -502,22 +502,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.642</t>
+          <t>3.641</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.846</t>
+          <t>3.845</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.768</t>
+          <t>3.767</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.828</t>
+          <t>3.827</t>
         </is>
       </c>
     </row>
@@ -532,22 +532,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>35.94</t>
+          <t>35.97</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>38.06</t>
+          <t>38.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.94</t>
+          <t>36.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>37.36</t>
+          <t>37.39</t>
         </is>
       </c>
     </row>
@@ -562,22 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>20.18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>20.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>20.68</t>
         </is>
       </c>
     </row>
@@ -622,22 +622,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.58</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>21.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.07</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>21.26</t>
         </is>
       </c>
     </row>
@@ -652,22 +652,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30.58</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31.78</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.24</t>
+          <t>31.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>31.53</t>
+          <t>31.55</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.697</t>
+          <t>1.698</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.777</t>
+          <t>1.778</t>
         </is>
       </c>
     </row>
@@ -742,22 +742,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -772,22 +772,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>18.9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19.73</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19.26</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19.46</t>
+          <t>19.48</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.8164</t>
+          <t>0.8167</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.0064</t>
+          <t>1.0067</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.9288</t>
+          <t>0.9291</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.9688</t>
+          <t>0.9691</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.5215</t>
+          <t>0.5218</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.6545</t>
+          <t>0.6548</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -892,22 +892,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>32.59</t>
+          <t>32.63</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33.93</t>
+          <t>33.97</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33.21</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>33.61</t>
+          <t>33.65</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.02288</t>
+          <t>0.02289</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.02678</t>
+          <t>0.02679</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.114</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.272</t>
+          <t>4.276</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.182</t>
+          <t>4.186</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.232</t>
+          <t>4.236</t>
         </is>
       </c>
     </row>

--- a/auto_test01/currency.xlsx
+++ b/auto_test01/currency.xlsx
@@ -472,22 +472,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29.03</t>
+          <t>29.15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.7</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>29.48</t>
+          <t>29.6</t>
         </is>
       </c>
     </row>
@@ -502,22 +502,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.641</t>
+          <t>3.656</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.845</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.767</t>
+          <t>3.782</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.827</t>
+          <t>3.842</t>
         </is>
       </c>
     </row>
@@ -532,22 +532,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>35.97</t>
+          <t>36.12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>38.09</t>
+          <t>38.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.97</t>
+          <t>37.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>37.39</t>
+          <t>37.54</t>
         </is>
       </c>
     </row>
@@ -562,22 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>20.27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.96</t>
+          <t>21.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.45</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>20.77</t>
         </is>
       </c>
     </row>
@@ -592,22 +592,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21.3</t>
+          <t>21.39</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.21</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>21.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -622,22 +622,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.5</t>
+          <t>21.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>21.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>21.33</t>
         </is>
       </c>
     </row>
@@ -652,22 +652,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.26</t>
+          <t>31.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>31.55</t>
+          <t>31.65</t>
         </is>
       </c>
     </row>
@@ -682,22 +682,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.2651</t>
+          <t>0.2663</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.2779</t>
+          <t>0.2791</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.2724</t>
+          <t>0.2736</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.2764</t>
+          <t>0.2776</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.698</t>
+          <t>1.712</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.778</t>
+          <t>1.792</t>
         </is>
       </c>
     </row>
@@ -742,22 +742,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -772,22 +772,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18.9</t>
+          <t>18.99</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>19.84</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19.28</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.57</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.8167</t>
+          <t>0.8198</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.0067</t>
+          <t>1.0098</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.9291</t>
+          <t>0.9322</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.9691</t>
+          <t>0.9722</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.5218</t>
+          <t>0.5242</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.6548</t>
+          <t>0.6572</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.00168</t>
+          <t>0.00173</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00238</t>
+          <t>0.00243</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -892,22 +892,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>32.63</t>
+          <t>32.68</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33.97</t>
+          <t>34.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>33.65</t>
+          <t>33.7</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.02289</t>
+          <t>0.02299</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.02679</t>
+          <t>0.02689</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.789</t>
+          <t>5.824</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.414</t>
+          <t>7.449</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.114</t>
+          <t>4.129</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.276</t>
+          <t>4.291</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.186</t>
+          <t>4.201</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.236</t>
+          <t>4.251</t>
         </is>
       </c>
     </row>
